--- a/docs/Protokolle/Sprint_Review_Protocol_5.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Desktop/classmate_ITP/docs/Protokolle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1704DB9D-E03B-4671-A08D-3D00D0FC6670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340BA152-FB93-3141-82D9-CAC16721EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-4420" yWindow="500" windowWidth="32000" windowHeight="18340" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -317,6 +317,17 @@
 Konsistenz und Wiederverwendung: Komponenten wie &lt;header&gt;, &lt;footer&gt;, &lt;nav&gt; oder spezifische Inhaltselemente wurden einheitlich und wiederverwendbar umgesetzt. Dadurch war der HTML-Code wartbar und sauber gegliedert.
 Saubere Dokumentation: Jeder HTML-Datei war ein übersichtlicher Kommentarblock mit einer Liste aller enthaltenen Komponenten vorangestellt. Dies hat sich in der Praxis sehr bewährt.</t>
     </r>
+  </si>
+  <si>
+    <t>Yueting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In diesem Sprint lag mein Schwerpunkt auf der Fertigstellung des statischen Frontends für unser ITP-Projekt Classmate. Ich habe die grundlegende Seitenstruktur in HTML und CSS umgesetzt, inklusive Layout, Navigation und grundlegender Benutzeransichten wie Login, Registrierung und Übersichtsseiten.
+Besonders wichtig war mir dabei, die Seiten so vorzubereiten, dass sie später modular in Angular-Komponenten überführt werden können. Die Zusammenarbeit im Team war inhaltlich gut, allerdings waren die Schnittstellen zwischen Frontend und Backend zum Teil noch unklar.
+Ein großes Hindernis im Sprint war die nicht funktionierende Datenbankanbindung. Obwohl das Backend von meiner Kollegin entwickelt wurde, konnten wir die Verbindung zur MySQL-Datenbank nicht erfolgreich testen. Das hat die Integration massiv verzögert. Wir konnten noch keine funktionierenden End-to-End-Funktionstests durchführen.
+Lernfaktor: Ich habe gelernt, wie wichtig es ist, frühzeitig die technische Infrastruktur (z. B. funktionierende Datenbank + Server) abzustimmen. Für den nächsten Sprint ist es für mich besonders wichtig, dass wir diese Basis zum Laufen bringen, bevor wir weiter an der Angular-Integration arbeiten.
+Trotz der offenen technischen Probleme bin ich mit meiner eigenen Leistung im Sprint zufrieden. Das Frontend ist stabil und sauber strukturiert – ein guter Ausgangspunkt für die kommenden Schritte.
+</t>
   </si>
 </sst>
 </file>
@@ -568,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,6 +588,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,84 +672,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -675,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,43 +1010,43 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.453125" style="2"/>
-    <col min="8" max="8" width="34.54296875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="2"/>
+    <col min="2" max="2" width="36.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="2"/>
+    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1043,136 +1057,136 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="14">
+      <c r="B4" s="20"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="26">
+      <c r="B5" s="22"/>
+      <c r="C5" s="25">
         <v>45804.5625</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16">
+      <c r="B6" s="22"/>
+      <c r="C6" s="26">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,145 +1212,145 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="10">
         <v>2.5</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="11">
         <f>D16-C16</f>
         <v>-0.5</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="10">
         <v>1.5</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="11">
         <f t="shared" ref="E17:E21" si="0">D17-C17</f>
         <v>0.5</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="10">
         <v>1</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="10">
         <v>1.5</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="31"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="10">
         <v>3</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="10">
         <v>2.5</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="31"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32">
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F21" s="9"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>COUNT(A16:A21)</f>
         <v>6</v>
@@ -1358,19 +1372,23 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
@@ -1387,10 +1405,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1399,37 +1413,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFCC98B-9AE8-489F-A5CB-55F91DD68251}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="143.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.26953125" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" customWidth="1"/>
+    <col min="3" max="3" width="143.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="36" t="s">
         <v>40</v>
       </c>
@@ -1439,177 +1456,272 @@
       <c r="E2" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="3:5" ht="122" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="3:9" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
       <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="3:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="3:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="37"/>
       <c r="D21" s="38"/>
       <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
       <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="37"/>
       <c r="D23" s="38"/>
       <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
       <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="36"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
       <c r="E26" s="36"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
       <c r="E28" s="36"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
       <c r="E29" s="36"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="36"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
       <c r="E31" s="36"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="36"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
       <c r="E33" s="36"/>
     </row>
-    <row r="34" spans="3:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
       <c r="E34" s="36"/>
     </row>
-    <row r="35" spans="3:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
       <c r="E35" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:C35"/>
     <mergeCell ref="D2:D35"/>
     <mergeCell ref="E2:E35"/>
+    <mergeCell ref="F2:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Protokolle/Sprint_Review_Protocol_5.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Desktop/classmate_ITP/docs/Protokolle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Documents/3.Studium/1.Technikum/2.semester/7.IT_projekt/github/classmate_ITP/docs/Protokolle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340BA152-FB93-3141-82D9-CAC16721EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C956D45-2C8A-E245-9B25-D4F82F4FCD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4420" yWindow="500" windowWidth="32000" windowHeight="18340" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="18340" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
@@ -322,19 +322,72 @@
     <t>Yueting</t>
   </si>
   <si>
-    <t xml:space="preserve">In diesem Sprint lag mein Schwerpunkt auf der Fertigstellung des statischen Frontends für unser ITP-Projekt Classmate. Ich habe die grundlegende Seitenstruktur in HTML und CSS umgesetzt, inklusive Layout, Navigation und grundlegender Benutzeransichten wie Login, Registrierung und Übersichtsseiten.
+    <r>
+      <t xml:space="preserve">In diesem Sprint lag mein Schwerpunkt auf der </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Fertigstellung des statischen Frontends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve"> für unser ITP-Projekt Classmate. Ich habe die grundlegende Seitenstruktur in HTML und CSS umgesetzt, inklusive Layout, Navigation und grundlegender Benutzeransichten wie Login, Registrierung und Übersichtsseiten.
 Besonders wichtig war mir dabei, die Seiten so vorzubereiten, dass sie später modular in Angular-Komponenten überführt werden können. Die Zusammenarbeit im Team war inhaltlich gut, allerdings waren die Schnittstellen zwischen Frontend und Backend zum Teil noch unklar.
-Ein großes Hindernis im Sprint war die nicht funktionierende Datenbankanbindung. Obwohl das Backend von meiner Kollegin entwickelt wurde, konnten wir die Verbindung zur MySQL-Datenbank nicht erfolgreich testen. Das hat die Integration massiv verzögert. Wir konnten noch keine funktionierenden End-to-End-Funktionstests durchführen.
-Lernfaktor: Ich habe gelernt, wie wichtig es ist, frühzeitig die technische Infrastruktur (z. B. funktionierende Datenbank + Server) abzustimmen. Für den nächsten Sprint ist es für mich besonders wichtig, dass wir diese Basis zum Laufen bringen, bevor wir weiter an der Angular-Integration arbeiten.
+Ein großes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">Hindernis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">im Sprint war die nicht funktionierende Datenbankanbindung. Obwohl das Backend von meiner Kollegin entwickelt wurde, konnten wir die Verbindung zur MySQL-Datenbank nicht erfolgreich testen. Das hat die Integration massiv verzögert. Wir konnten noch keine funktionierenden End-to-End-Funktionstests durchführen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Lernfaktor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">: Ich habe gelernt, wie wichtig es ist, frühzeitig die technische Infrastruktur (z. B. funktionierende Datenbank + Server) abzustimmen. Für den nächsten Sprint ist es für mich besonders wichtig, dass wir diese Basis zum Laufen bringen, bevor wir weiter an der Angular-Integration arbeiten.
 Trotz der offenen technischen Probleme bin ich mit meiner eigenen Leistung im Sprint zufrieden. Das Frontend ist stabil und sauber strukturiert – ein guter Ausgangspunkt für die kommenden Schritte.
 </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +433,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -579,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,6 +679,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -633,12 +715,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,18 +742,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -688,7 +752,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,28 +1090,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -1058,133 +1125,133 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="29">
         <v>45804.5625</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="26">
+      <c r="B6" s="18"/>
+      <c r="C6" s="30">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1385,11 +1452,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1404,6 +1466,11 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1416,7 +1483,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I24"/>
+      <selection activeCell="F2" sqref="F2:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1442,9 +1509,12 @@
       <c r="E1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="39" t="s">
         <v>43</v>
       </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="36" t="s">
@@ -1456,272 +1526,317 @@
       <c r="E2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="36"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="36"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="3:9" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="3:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="37"/>
       <c r="D21" s="38"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="37"/>
       <c r="D23" s="38"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
       <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
       <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
       <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="36"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
       <c r="E31" s="36"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="36"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
       <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="3:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="3:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
       <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="3:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="3:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
       <c r="E35" s="36"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:C35"/>
     <mergeCell ref="D2:D35"/>
     <mergeCell ref="E2:E35"/>
-    <mergeCell ref="F2:I24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Protokolle/Sprint_Review_Protocol_5.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Documents/3.Studium/1.Technikum/2.semester/7.IT_projekt/github/classmate_ITP/docs/Protokolle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C956D45-2C8A-E245-9B25-D4F82F4FCD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B23F8-BD04-4446-871B-BD98980D8C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="18340" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-28230" yWindow="1875" windowWidth="11835" windowHeight="9975" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,18 +679,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -699,42 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1073,47 +1073,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="2"/>
-    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="2"/>
+    <col min="2" max="2" width="36.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.453125" style="2"/>
+    <col min="8" max="8" width="34.453125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.5" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1124,102 +1124,102 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27">
+      <c r="B4" s="19"/>
+      <c r="C4" s="22">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="29">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24">
         <v>45804.5625</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="30">
+      <c r="B6" s="21"/>
+      <c r="C6" s="25">
         <v>16</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
@@ -1228,32 +1228,32 @@
       <c r="F11" s="34"/>
       <c r="G11" s="35"/>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:9" ht="16" thickBot="1">
+      <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="46.5">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="7">
         <v>2</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>3</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>4</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>5</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>6</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <f>COUNT(A16:A21)</f>
         <v>6</v>
@@ -1439,19 +1439,25 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1466,12 +1472,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1482,18 +1482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFCC98B-9AE8-489F-A5CB-55F91DD68251}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="143.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="143.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.36328125" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.5" customHeight="1">
       <c r="C2" s="36" t="s">
         <v>40</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.5" customHeight="1">
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="36"/>
@@ -1542,7 +1542,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.5" customHeight="1">
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="36"/>
@@ -1551,7 +1551,7 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.5" customHeight="1">
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="36"/>
@@ -1560,7 +1560,7 @@
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.5" customHeight="1">
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="36"/>
@@ -1569,7 +1569,7 @@
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.5" customHeight="1">
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="36"/>
@@ -1578,7 +1578,7 @@
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.5" customHeight="1">
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="36"/>
@@ -1587,7 +1587,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.5" customHeight="1">
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="36"/>
@@ -1596,7 +1596,7 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.5" customHeight="1">
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="36"/>
@@ -1605,7 +1605,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.5" customHeight="1">
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="36"/>
@@ -1614,7 +1614,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.5" customHeight="1">
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="36"/>
@@ -1623,7 +1623,7 @@
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14.5" customHeight="1">
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="36"/>
@@ -1632,7 +1632,7 @@
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.5" customHeight="1">
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="36"/>
@@ -1641,7 +1641,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.5" customHeight="1">
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="36"/>
@@ -1650,7 +1650,7 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="124" customHeight="1">
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="36"/>
@@ -1659,7 +1659,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="3:9" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" ht="122" customHeight="1">
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="36"/>
@@ -1668,7 +1668,7 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9" ht="14.5" customHeight="1">
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
       <c r="E18" s="36"/>
@@ -1677,7 +1677,7 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9" ht="14.5" customHeight="1">
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="36"/>
@@ -1686,7 +1686,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" ht="15" customHeight="1">
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="36"/>
@@ -1695,7 +1695,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="3:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" ht="17.5" customHeight="1">
       <c r="C21" s="37"/>
       <c r="D21" s="38"/>
       <c r="E21" s="36"/>
@@ -1704,7 +1704,7 @@
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" ht="15" customHeight="1">
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
       <c r="E22" s="36"/>
@@ -1713,7 +1713,7 @@
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9" ht="15" customHeight="1">
       <c r="C23" s="37"/>
       <c r="D23" s="38"/>
       <c r="E23" s="36"/>
@@ -1722,7 +1722,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
     </row>
-    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9" ht="15" customHeight="1">
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
       <c r="E24" s="36"/>
@@ -1731,7 +1731,7 @@
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" ht="15" customHeight="1">
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="36"/>
@@ -1740,7 +1740,7 @@
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9" ht="15" customHeight="1">
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
       <c r="E26" s="36"/>
@@ -1749,7 +1749,7 @@
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9" ht="15" customHeight="1">
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="36"/>
@@ -1758,7 +1758,7 @@
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9" ht="15" customHeight="1">
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
       <c r="E28" s="36"/>
@@ -1767,7 +1767,7 @@
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" ht="15" customHeight="1">
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
       <c r="E29" s="36"/>
@@ -1776,7 +1776,7 @@
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9" ht="15" customHeight="1">
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="36"/>
@@ -1785,7 +1785,7 @@
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9" ht="15" customHeight="1">
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
       <c r="E31" s="36"/>
@@ -1794,7 +1794,7 @@
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9" ht="15" customHeight="1">
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="36"/>
@@ -1803,7 +1803,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
     </row>
-    <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9" ht="15" customHeight="1">
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
       <c r="E33" s="36"/>
@@ -1812,7 +1812,7 @@
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
     </row>
-    <row r="34" spans="3:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9" ht="43.5" customHeight="1">
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
       <c r="E34" s="36"/>
@@ -1821,7 +1821,7 @@
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
     </row>
-    <row r="35" spans="3:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9" ht="38" customHeight="1">
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
       <c r="E35" s="36"/>
